--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H2">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.582021999999999</v>
+        <v>15.025588</v>
       </c>
       <c r="N2">
-        <v>22.746066</v>
+        <v>45.076764</v>
       </c>
       <c r="O2">
-        <v>0.6904803268470485</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P2">
-        <v>0.6904803268470484</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q2">
-        <v>47.85783659433</v>
+        <v>194.219443261844</v>
       </c>
       <c r="R2">
-        <v>430.72052934897</v>
+        <v>1747.974989356596</v>
       </c>
       <c r="S2">
-        <v>0.0321001007113234</v>
+        <v>0.05550703738255535</v>
       </c>
       <c r="T2">
-        <v>0.0321001007113234</v>
+        <v>0.05550703738255536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H3">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.01603921708027116</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P3">
-        <v>0.01603921708027115</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q3">
-        <v>1.11169312185</v>
+        <v>2.276554883936666</v>
       </c>
       <c r="R3">
-        <v>10.00523809665</v>
+        <v>20.48899395543</v>
       </c>
       <c r="S3">
-        <v>0.0007456555438132442</v>
+        <v>0.0006506290766972707</v>
       </c>
       <c r="T3">
-        <v>0.0007456555438132441</v>
+        <v>0.0006506290766972708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H4">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.025778</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N4">
-        <v>9.077334</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O4">
-        <v>0.2755518491514017</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P4">
-        <v>0.2755518491514016</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q4">
-        <v>19.09875612267</v>
+        <v>0.3689227915706667</v>
       </c>
       <c r="R4">
-        <v>171.88880510403</v>
+        <v>3.320305124136</v>
       </c>
       <c r="S4">
-        <v>0.01281027389924571</v>
+        <v>0.0001054364632040561</v>
       </c>
       <c r="T4">
-        <v>0.0128102738992457</v>
+        <v>0.0001054364632040561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H5">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.116695</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N5">
-        <v>0.350085</v>
+        <v>19.037629</v>
       </c>
       <c r="O5">
-        <v>0.01062719176248979</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P5">
-        <v>0.01062719176248978</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q5">
-        <v>0.736580590425</v>
+        <v>82.02624539342567</v>
       </c>
       <c r="R5">
-        <v>6.629225313825001</v>
+        <v>738.2362085408311</v>
       </c>
       <c r="S5">
-        <v>0.0004940530708705258</v>
+        <v>0.0234427294864871</v>
       </c>
       <c r="T5">
-        <v>0.0004940530708705256</v>
+        <v>0.0234427294864871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H6">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08017533333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N6">
-        <v>0.240526</v>
+        <v>0.458717</v>
       </c>
       <c r="O6">
-        <v>0.007301415158788918</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P6">
-        <v>0.007301415158788916</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q6">
-        <v>0.50606790663</v>
+        <v>1.976445344540333</v>
       </c>
       <c r="R6">
-        <v>4.554611159669999</v>
+        <v>17.788008100863</v>
       </c>
       <c r="S6">
-        <v>0.0003394393045237701</v>
+        <v>0.0005648591293512916</v>
       </c>
       <c r="T6">
-        <v>0.00033943930452377</v>
+        <v>0.0005648591293512917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.425509</v>
+        <v>12.925913</v>
       </c>
       <c r="H7">
-        <v>130.276527</v>
+        <v>38.777739</v>
       </c>
       <c r="I7">
-        <v>0.3198394140417154</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J7">
-        <v>0.3198394140417154</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.582021999999999</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N7">
-        <v>22.746066</v>
+        <v>0.256512</v>
       </c>
       <c r="O7">
-        <v>0.6904803268470485</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P7">
-        <v>0.6904803268470484</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q7">
-        <v>329.2531645991979</v>
+        <v>1.105217265152</v>
       </c>
       <c r="R7">
-        <v>2963.278481392781</v>
+        <v>9.946955386368</v>
       </c>
       <c r="S7">
-        <v>0.2208428231460921</v>
+        <v>0.0003158660895239517</v>
       </c>
       <c r="T7">
-        <v>0.2208428231460921</v>
+        <v>0.0003158660895239517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1761233333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N8">
-        <v>0.52837</v>
+        <v>45.076764</v>
       </c>
       <c r="O8">
-        <v>0.01603921708027116</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P8">
-        <v>0.01603921708027115</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q8">
-        <v>7.648245396776666</v>
+        <v>652.4938069242919</v>
       </c>
       <c r="R8">
-        <v>68.83420857099</v>
+        <v>5872.444262318627</v>
       </c>
       <c r="S8">
-        <v>0.0051299737926418</v>
+        <v>0.1864797752715413</v>
       </c>
       <c r="T8">
-        <v>0.005129973792641799</v>
+        <v>0.1864797752715413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.025778</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N9">
-        <v>9.077334</v>
+        <v>0.52837</v>
       </c>
       <c r="O9">
-        <v>0.2755518491514017</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P9">
-        <v>0.2755518491514016</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q9">
-        <v>131.395949771002</v>
+        <v>7.648245396776666</v>
       </c>
       <c r="R9">
-        <v>1182.563547939018</v>
+        <v>68.83420857099</v>
       </c>
       <c r="S9">
-        <v>0.08813234197069549</v>
+        <v>0.002185833900149182</v>
       </c>
       <c r="T9">
-        <v>0.08813234197069544</v>
+        <v>0.002185833900149182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116695</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N10">
-        <v>0.350085</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O10">
-        <v>0.01062719176248979</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P10">
-        <v>0.01062719176248978</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q10">
-        <v>5.067539772755</v>
+        <v>1.239421927538667</v>
       </c>
       <c r="R10">
-        <v>45.607857954795</v>
+        <v>11.154797347848</v>
       </c>
       <c r="S10">
-        <v>0.003398994786223678</v>
+        <v>0.0003542211743028061</v>
       </c>
       <c r="T10">
-        <v>0.003398994786223677</v>
+        <v>0.0003542211743028061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08017533333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N11">
-        <v>0.240526</v>
+        <v>19.037629</v>
       </c>
       <c r="O11">
-        <v>0.007301415158788918</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P11">
-        <v>0.007301415158788916</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q11">
-        <v>3.481654659244667</v>
+        <v>275.5729098260537</v>
       </c>
       <c r="R11">
-        <v>31.33489193320199</v>
+        <v>2480.156188434483</v>
       </c>
       <c r="S11">
-        <v>0.002335280346062346</v>
+        <v>0.07875748972625847</v>
       </c>
       <c r="T11">
-        <v>0.002335280346062345</v>
+        <v>0.07875748972625847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.488932</v>
+        <v>43.425509</v>
       </c>
       <c r="H12">
-        <v>94.466796</v>
+        <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.2319236271860261</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J12">
-        <v>0.2319236271860261</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.582021999999999</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N12">
-        <v>22.746066</v>
+        <v>0.458717</v>
       </c>
       <c r="O12">
-        <v>0.6904803268470485</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P12">
-        <v>0.6904803268470484</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q12">
-        <v>238.749775180504</v>
+        <v>6.640006403984333</v>
       </c>
       <c r="R12">
-        <v>2148.747976624536</v>
+        <v>59.76005763585899</v>
       </c>
       <c r="S12">
-        <v>0.1601387019029603</v>
+        <v>0.001897683761710038</v>
       </c>
       <c r="T12">
-        <v>0.1601387019029603</v>
+        <v>0.001897683761710038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.488932</v>
+        <v>43.425509</v>
       </c>
       <c r="H13">
-        <v>94.466796</v>
+        <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.2319236271860261</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J13">
-        <v>0.2319236271860261</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1761233333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N13">
-        <v>0.52837</v>
+        <v>0.256512</v>
       </c>
       <c r="O13">
-        <v>0.01603921708027116</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P13">
-        <v>0.01603921708027115</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q13">
-        <v>5.545935666946667</v>
+        <v>3.713054721536</v>
       </c>
       <c r="R13">
-        <v>49.91342100252</v>
+        <v>33.417492493824</v>
       </c>
       <c r="S13">
-        <v>0.00371987340248055</v>
+        <v>0.001061174225249479</v>
       </c>
       <c r="T13">
-        <v>0.003719873402480549</v>
+        <v>0.001061174225249479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H14">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.025778</v>
+        <v>15.025588</v>
       </c>
       <c r="N14">
-        <v>9.077334</v>
+        <v>45.076764</v>
       </c>
       <c r="O14">
-        <v>0.2755518491514017</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P14">
-        <v>0.2755518491514016</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q14">
-        <v>95.27851768909602</v>
+        <v>592.3091497617573</v>
       </c>
       <c r="R14">
-        <v>857.5066592018641</v>
+        <v>5330.782347855816</v>
       </c>
       <c r="S14">
-        <v>0.06390698433300981</v>
+        <v>0.1692792727941799</v>
       </c>
       <c r="T14">
-        <v>0.06390698433300979</v>
+        <v>0.16927927279418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H15">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.116695</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N15">
-        <v>0.350085</v>
+        <v>0.52837</v>
       </c>
       <c r="O15">
-        <v>0.01062719176248979</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P15">
-        <v>0.01062719176248978</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q15">
-        <v>3.67460091974</v>
+        <v>6.942787318531111</v>
       </c>
       <c r="R15">
-        <v>33.07140827766001</v>
+        <v>62.48508586678</v>
       </c>
       <c r="S15">
-        <v>0.00246469686035809</v>
+        <v>0.001984217175976981</v>
       </c>
       <c r="T15">
-        <v>0.002464696860358089</v>
+        <v>0.001984217175976982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H16">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08017533333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N16">
-        <v>0.240526</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O16">
-        <v>0.007301415158788918</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P16">
-        <v>0.007301415158788916</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q16">
-        <v>2.524635619410667</v>
+        <v>1.125100254295111</v>
       </c>
       <c r="R16">
-        <v>22.721720574696</v>
+        <v>10.125902288656</v>
       </c>
       <c r="S16">
-        <v>0.001693370687217361</v>
+        <v>0.0003215485577830934</v>
       </c>
       <c r="T16">
-        <v>0.00169337068721736</v>
+        <v>0.0003215485577830935</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.285594</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H17">
-        <v>33.856782</v>
+        <v>118.260094</v>
       </c>
       <c r="I17">
-        <v>0.08312113905383813</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J17">
-        <v>0.08312113905383813</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.582021999999999</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N17">
-        <v>22.746066</v>
+        <v>19.037629</v>
       </c>
       <c r="O17">
-        <v>0.6904803268470485</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P17">
-        <v>0.6904803268470484</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q17">
-        <v>85.56762199106798</v>
+        <v>250.1546438974585</v>
       </c>
       <c r="R17">
-        <v>770.1085979196118</v>
+        <v>2251.391795077127</v>
       </c>
       <c r="S17">
-        <v>0.05739351126179312</v>
+        <v>0.07149306442772581</v>
       </c>
       <c r="T17">
-        <v>0.05739351126179311</v>
+        <v>0.07149306442772584</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.285594</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H18">
-        <v>33.856782</v>
+        <v>118.260094</v>
       </c>
       <c r="I18">
-        <v>0.08312113905383813</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J18">
-        <v>0.08312113905383813</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1761233333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N18">
-        <v>0.52837</v>
+        <v>0.458717</v>
       </c>
       <c r="O18">
-        <v>0.01603921708027116</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P18">
-        <v>0.01603921708027115</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q18">
-        <v>1.987656433926666</v>
+        <v>6.027546171044222</v>
       </c>
       <c r="R18">
-        <v>17.88890790534</v>
+        <v>54.247915539398</v>
       </c>
       <c r="S18">
-        <v>0.001333197993243914</v>
+        <v>0.001722645400595479</v>
       </c>
       <c r="T18">
-        <v>0.001333197993243914</v>
+        <v>0.001722645400595479</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.285594</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H19">
-        <v>33.856782</v>
+        <v>118.260094</v>
       </c>
       <c r="I19">
-        <v>0.08312113905383813</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J19">
-        <v>0.08312113905383813</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.025778</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N19">
-        <v>9.077334</v>
+        <v>0.256512</v>
       </c>
       <c r="O19">
-        <v>0.2755518491514017</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P19">
-        <v>0.2755518491514016</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q19">
-        <v>34.147702042132</v>
+        <v>3.370570359125334</v>
       </c>
       <c r="R19">
-        <v>307.329318379188</v>
+        <v>30.335133232128</v>
       </c>
       <c r="S19">
-        <v>0.02290418356985589</v>
+        <v>0.0009632937453757927</v>
       </c>
       <c r="T19">
-        <v>0.02290418356985588</v>
+        <v>0.0009632937453757927</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H20">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.116695</v>
+        <v>15.025588</v>
       </c>
       <c r="N20">
-        <v>0.350085</v>
+        <v>45.076764</v>
       </c>
       <c r="O20">
-        <v>0.01062719176248979</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P20">
-        <v>0.01062719176248978</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q20">
-        <v>1.31697239183</v>
+        <v>134.6367462142947</v>
       </c>
       <c r="R20">
-        <v>11.85275152647</v>
+        <v>1211.730715928652</v>
       </c>
       <c r="S20">
-        <v>0.0008833442842417167</v>
+        <v>0.03847857238014574</v>
       </c>
       <c r="T20">
-        <v>0.0008833442842417164</v>
+        <v>0.03847857238014574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H21">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.08017533333333333</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N21">
-        <v>0.240526</v>
+        <v>0.52837</v>
       </c>
       <c r="O21">
-        <v>0.007301415158788918</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P21">
-        <v>0.007301415158788916</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q21">
-        <v>0.9048262608146665</v>
+        <v>1.578152717378889</v>
       </c>
       <c r="R21">
-        <v>8.143436347331999</v>
+        <v>14.20337445641</v>
       </c>
       <c r="S21">
-        <v>0.0006069019447034952</v>
+        <v>0.0004510289001335057</v>
       </c>
       <c r="T21">
-        <v>0.000606901944703495</v>
+        <v>0.0004510289001335057</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.57928733333333</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H22">
-        <v>43.737862</v>
+        <v>26.881493</v>
       </c>
       <c r="I22">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J22">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.582021999999999</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N22">
-        <v>22.746066</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O22">
-        <v>0.6904803268470485</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P22">
-        <v>0.6904803268470484</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q22">
-        <v>110.5404773056547</v>
+        <v>0.2557445507368889</v>
       </c>
       <c r="R22">
-        <v>994.864295750892</v>
+        <v>2.301700956632</v>
       </c>
       <c r="S22">
-        <v>0.07414377052325155</v>
+        <v>7.309063448914831E-05</v>
       </c>
       <c r="T22">
-        <v>0.07414377052325154</v>
+        <v>7.309063448914832E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.57928733333333</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H23">
-        <v>43.737862</v>
+        <v>26.881493</v>
       </c>
       <c r="I23">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J23">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1761233333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N23">
-        <v>0.52837</v>
+        <v>19.037629</v>
       </c>
       <c r="O23">
-        <v>0.01603921708027116</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P23">
-        <v>0.01603921708027115</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q23">
-        <v>2.567752682771111</v>
+        <v>56.86221007778856</v>
       </c>
       <c r="R23">
-        <v>23.10977414494</v>
+        <v>511.7598907000971</v>
       </c>
       <c r="S23">
-        <v>0.001722290968089621</v>
+        <v>0.01625096214588211</v>
       </c>
       <c r="T23">
-        <v>0.001722290968089621</v>
+        <v>0.01625096214588212</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.57928733333333</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H24">
-        <v>43.737862</v>
+        <v>26.881493</v>
       </c>
       <c r="I24">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J24">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.025778</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N24">
-        <v>9.077334</v>
+        <v>0.458717</v>
       </c>
       <c r="O24">
-        <v>0.2755518491514017</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P24">
-        <v>0.2755518491514016</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q24">
-        <v>44.11368686887867</v>
+        <v>1.370110869386778</v>
       </c>
       <c r="R24">
-        <v>397.023181819908</v>
+        <v>12.330997824481</v>
       </c>
       <c r="S24">
-        <v>0.02958875477891031</v>
+        <v>0.0003915714820723003</v>
       </c>
       <c r="T24">
-        <v>0.0295887547789103</v>
+        <v>0.0003915714820723004</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.57928733333333</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H25">
-        <v>43.737862</v>
+        <v>26.881493</v>
       </c>
       <c r="I25">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J25">
-        <v>0.1073799899003864</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.116695</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N25">
-        <v>0.350085</v>
+        <v>0.256512</v>
       </c>
       <c r="O25">
-        <v>0.01062719176248979</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P25">
-        <v>0.01062719176248978</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q25">
-        <v>1.701329935363333</v>
+        <v>0.7661583924906668</v>
       </c>
       <c r="R25">
-        <v>15.31196941827</v>
+        <v>6.895425532416001</v>
       </c>
       <c r="S25">
-        <v>0.001141147744125623</v>
+        <v>0.000218964599108666</v>
       </c>
       <c r="T25">
-        <v>0.001141147744125622</v>
+        <v>0.0002189645991086659</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H26">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08017533333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N26">
-        <v>0.240526</v>
+        <v>45.076764</v>
       </c>
       <c r="O26">
-        <v>0.007301415158788918</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P26">
-        <v>0.007301415158788916</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q26">
-        <v>1.168899221712445</v>
+        <v>223.8141068386987</v>
       </c>
       <c r="R26">
-        <v>10.520092995412</v>
+        <v>2014.326961548288</v>
       </c>
       <c r="S26">
-        <v>0.0007840258860092819</v>
+        <v>0.06396505821659687</v>
       </c>
       <c r="T26">
-        <v>0.0007840258860092817</v>
+        <v>0.06396505821659688</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.68151333333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H27">
-        <v>86.04454</v>
+        <v>44.686592</v>
       </c>
       <c r="I27">
-        <v>0.2112463072882572</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J27">
-        <v>0.2112463072882573</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>7.582021999999999</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N27">
-        <v>22.746066</v>
+        <v>0.52837</v>
       </c>
       <c r="O27">
-        <v>0.6904803268470485</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P27">
-        <v>0.6904803268470484</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q27">
-        <v>217.4638650866266</v>
+        <v>2.623450512782222</v>
       </c>
       <c r="R27">
-        <v>1957.17478577964</v>
+        <v>23.61105461504</v>
       </c>
       <c r="S27">
-        <v>0.1458614193016279</v>
+        <v>0.000749770276542107</v>
       </c>
       <c r="T27">
-        <v>0.1458614193016279</v>
+        <v>0.0007497702765421071</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.68151333333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H28">
-        <v>86.04454</v>
+        <v>44.686592</v>
       </c>
       <c r="I28">
-        <v>0.2112463072882572</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J28">
-        <v>0.2112463072882573</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1761233333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N28">
-        <v>0.52837</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O28">
-        <v>0.01603921708027116</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P28">
-        <v>0.01603921708027115</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q28">
-        <v>5.051483733311111</v>
+        <v>0.4251383059342222</v>
       </c>
       <c r="R28">
-        <v>45.4633535998</v>
+        <v>3.826244753408001</v>
       </c>
       <c r="S28">
-        <v>0.003388225380002025</v>
+        <v>0.0001215026026433018</v>
       </c>
       <c r="T28">
-        <v>0.003388225380002025</v>
+        <v>0.0001215026026433018</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.68151333333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H29">
-        <v>86.04454</v>
+        <v>44.686592</v>
       </c>
       <c r="I29">
-        <v>0.2112463072882572</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J29">
-        <v>0.2112463072882573</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.025778</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N29">
-        <v>9.077334</v>
+        <v>19.037629</v>
       </c>
       <c r="O29">
-        <v>0.2755518491514017</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P29">
-        <v>0.2755518491514016</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q29">
-        <v>86.78389205070667</v>
+        <v>94.5251955300409</v>
       </c>
       <c r="R29">
-        <v>781.05502845636</v>
+        <v>850.7267597703682</v>
       </c>
       <c r="S29">
-        <v>0.05820931059968452</v>
+        <v>0.02701487283539194</v>
       </c>
       <c r="T29">
-        <v>0.0582093105996845</v>
+        <v>0.02701487283539194</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.68151333333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H30">
-        <v>86.04454</v>
+        <v>44.686592</v>
       </c>
       <c r="I30">
-        <v>0.2112463072882572</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J30">
-        <v>0.2112463072882573</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,33 +2297,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.116695</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N30">
-        <v>0.350085</v>
+        <v>0.458717</v>
       </c>
       <c r="O30">
-        <v>0.01062719176248979</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P30">
-        <v>0.01062719176248978</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q30">
-        <v>3.346989198433333</v>
+        <v>2.277611046940445</v>
       </c>
       <c r="R30">
-        <v>30.1229027859</v>
+        <v>20.498499422464</v>
       </c>
       <c r="S30">
-        <v>0.002244955016670154</v>
+        <v>0.000650930923301031</v>
       </c>
       <c r="T30">
-        <v>0.002244955016670153</v>
+        <v>0.0006509309233010311</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>28.68151333333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H31">
-        <v>86.04454</v>
+        <v>44.686592</v>
       </c>
       <c r="I31">
-        <v>0.2112463072882572</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J31">
-        <v>0.2112463072882573</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.08017533333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N31">
-        <v>0.240526</v>
+        <v>0.256512</v>
       </c>
       <c r="O31">
-        <v>0.007301415158788918</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P31">
-        <v>0.007301415158788916</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q31">
-        <v>2.299549892004444</v>
+        <v>1.273627454122667</v>
       </c>
       <c r="R31">
-        <v>20.69594902804</v>
+        <v>11.462647087104</v>
       </c>
       <c r="S31">
-        <v>0.001542396990272663</v>
+        <v>0.0003639969589044969</v>
       </c>
       <c r="T31">
-        <v>0.001542396990272663</v>
+        <v>0.0003639969589044968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>40.77039833333334</v>
+      </c>
+      <c r="H32">
+        <v>122.311195</v>
+      </c>
+      <c r="I32">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="J32">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.025588</v>
+      </c>
+      <c r="N32">
+        <v>45.076764</v>
+      </c>
+      <c r="O32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="P32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="Q32">
+        <v>612.5992079525533</v>
+      </c>
+      <c r="R32">
+        <v>5513.39287157298</v>
+      </c>
+      <c r="S32">
+        <v>0.175078079543782</v>
+      </c>
+      <c r="T32">
+        <v>0.175078079543782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>40.77039833333334</v>
+      </c>
+      <c r="H33">
+        <v>122.311195</v>
+      </c>
+      <c r="I33">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="J33">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.52837</v>
+      </c>
+      <c r="O33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="P33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="Q33">
+        <v>7.180618455794446</v>
+      </c>
+      <c r="R33">
+        <v>64.62556610215</v>
+      </c>
+      <c r="S33">
+        <v>0.002052188238014337</v>
+      </c>
+      <c r="T33">
+        <v>0.002052188238014337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>40.77039833333334</v>
+      </c>
+      <c r="H34">
+        <v>122.311195</v>
+      </c>
+      <c r="I34">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="J34">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02854133333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.08562400000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="P34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="Q34">
+        <v>1.163641528964445</v>
+      </c>
+      <c r="R34">
+        <v>10.47277376068</v>
+      </c>
+      <c r="S34">
+        <v>0.0003325634795536076</v>
+      </c>
+      <c r="T34">
+        <v>0.0003325634795536076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>40.77039833333334</v>
+      </c>
+      <c r="H35">
+        <v>122.311195</v>
+      </c>
+      <c r="I35">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="J35">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.345876333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.037629</v>
+      </c>
+      <c r="O35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="P35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="Q35">
+        <v>258.7239058840728</v>
+      </c>
+      <c r="R35">
+        <v>2328.515152956656</v>
+      </c>
+      <c r="S35">
+        <v>0.0739421206985269</v>
+      </c>
+      <c r="T35">
+        <v>0.0739421206985269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>40.77039833333334</v>
+      </c>
+      <c r="H36">
+        <v>122.311195</v>
+      </c>
+      <c r="I36">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="J36">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1529056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.458717</v>
+      </c>
+      <c r="O36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="P36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="Q36">
+        <v>6.234024937423889</v>
+      </c>
+      <c r="R36">
+        <v>56.106224436815</v>
+      </c>
+      <c r="S36">
+        <v>0.001781656097010093</v>
+      </c>
+      <c r="T36">
+        <v>0.001781656097010093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>40.77039833333334</v>
+      </c>
+      <c r="H37">
+        <v>122.311195</v>
+      </c>
+      <c r="I37">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="J37">
+        <v>0.2541829002561214</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.256512</v>
+      </c>
+      <c r="O37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q37">
+        <v>3.486032139093334</v>
+      </c>
+      <c r="R37">
+        <v>31.37428925184</v>
+      </c>
+      <c r="S37">
+        <v>0.0009962921992345021</v>
+      </c>
+      <c r="T37">
+        <v>0.0009962921992345019</v>
       </c>
     </row>
   </sheetData>
